--- a/ROI Serenity Demo.xlsx
+++ b/ROI Serenity Demo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanBravoManuel\Desktop\PruebaCHOUCAIR\serenityDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IanBravoManuel\Desktop\dsfadfsa\serenityDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BD485E-B522-4F1F-BC20-0156191390DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67EE303-6B35-4057-BF77-CA8E1297D705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -179,6 +179,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -311,73 +314,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>244</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>366</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>488</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610</c:v>
+                  <c:v>550</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>732</c:v>
+                  <c:v>660</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>854</c:v>
+                  <c:v>770</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>976</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1098</c:v>
+                  <c:v>990</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1220</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1342</c:v>
+                  <c:v>1210</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1464</c:v>
+                  <c:v>1320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1586</c:v>
+                  <c:v>1430</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1708</c:v>
+                  <c:v>1540</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1830</c:v>
+                  <c:v>1650</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1952</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2074</c:v>
+                  <c:v>1870</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2196</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2318</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2440</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2562</c:v>
+                  <c:v>2310</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2684</c:v>
+                  <c:v>2420</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2806</c:v>
+                  <c:v>2530</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -428,70 +431,70 @@
                   <c:v>1560</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1599</c:v>
+                  <c:v>1584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1638</c:v>
+                  <c:v>1608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1677</c:v>
+                  <c:v>1632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1716</c:v>
+                  <c:v>1656</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1755</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1794</c:v>
+                  <c:v>1704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1833</c:v>
+                  <c:v>1728</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1752</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1824</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1848</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>1872</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>1911</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1950</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2067</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>2106</c:v>
+                  <c:v>1896</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2145</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2184</c:v>
+                  <c:v>1944</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2223</c:v>
+                  <c:v>1968</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2262</c:v>
+                  <c:v>1992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2301</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2340</c:v>
+                  <c:v>2040</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2379</c:v>
+                  <c:v>2064</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2418</c:v>
+                  <c:v>2088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -820,73 +823,73 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>112</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>224</c:v>
+                  <c:v>190</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>336</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>448</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>560</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>672</c:v>
+                  <c:v>570</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>784</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>896</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1008</c:v>
+                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1120</c:v>
+                  <c:v>950</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1232</c:v>
+                  <c:v>1045</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1344</c:v>
+                  <c:v>1140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1456</c:v>
+                  <c:v>1235</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1568</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1680</c:v>
+                  <c:v>1425</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1792</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1904</c:v>
+                  <c:v>1615</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2016</c:v>
+                  <c:v>1710</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2128</c:v>
+                  <c:v>1805</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2240</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2352</c:v>
+                  <c:v>1995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2464</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2576</c:v>
+                  <c:v>2185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -937,70 +940,70 @@
                   <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1135</c:v>
+                  <c:v>1118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1170</c:v>
+                  <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1205</c:v>
+                  <c:v>1154</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1240</c:v>
+                  <c:v>1172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1275</c:v>
+                  <c:v>1190</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1310</c:v>
+                  <c:v>1208</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1345</c:v>
+                  <c:v>1226</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1380</c:v>
+                  <c:v>1244</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1415</c:v>
+                  <c:v>1262</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1450</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1485</c:v>
+                  <c:v>1298</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1520</c:v>
+                  <c:v>1316</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1555</c:v>
+                  <c:v>1334</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1590</c:v>
+                  <c:v>1352</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1625</c:v>
+                  <c:v>1370</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1660</c:v>
+                  <c:v>1388</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1695</c:v>
+                  <c:v>1406</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1730</c:v>
+                  <c:v>1424</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1765</c:v>
+                  <c:v>1442</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1800</c:v>
+                  <c:v>1460</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1835</c:v>
+                  <c:v>1478</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1870</c:v>
+                  <c:v>1496</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2673,7 +2676,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,25 +2718,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="2">
-        <f>Crear_cliente_correctamente!A21</f>
-        <v>19</v>
+        <f>Crear_cliente_correctamente!A20</f>
+        <v>18</v>
       </c>
       <c r="C2" s="2">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>1560</v>
       </c>
       <c r="F2" s="2">
         <f>C2-D2</f>
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3">
         <f>1-(D2/C2)</f>
-        <v>0.68032786885245899</v>
+        <v>0.78181818181818186</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -2741,14 +2744,14 @@
         <v>9</v>
       </c>
       <c r="B3" s="2">
-        <f>Editar_cliente_correctamente!A16</f>
-        <v>14</v>
+        <f>Editar_cliente_correctamente!A17</f>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>1100</v>
@@ -2759,7 +2762,7 @@
       </c>
       <c r="G3" s="3">
         <f>1-(D3/C3)</f>
-        <v>0.6875</v>
+        <v>0.81052631578947365</v>
       </c>
     </row>
   </sheetData>
@@ -2772,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB60441B-4462-426A-B147-B7821ABFC75E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2810,7 +2813,7 @@
       </c>
       <c r="B3" s="5">
         <f>Resumen!C2</f>
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C3" s="5">
         <f>Resumen!E2</f>
@@ -2823,11 +2826,11 @@
       </c>
       <c r="B4" s="5">
         <f>B3+B$3</f>
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C4" s="5">
         <f>C3+Resumen!D$2</f>
-        <v>1599</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2836,11 +2839,11 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B25" si="0">B4+B$3</f>
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="C5" s="5">
         <f>C4+Resumen!D$2</f>
-        <v>1638</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2849,11 +2852,11 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
-        <v>488</v>
+        <v>440</v>
       </c>
       <c r="C6" s="5">
         <f>C5+Resumen!D$2</f>
-        <v>1677</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,11 +2865,11 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>550</v>
       </c>
       <c r="C7" s="5">
         <f>C6+Resumen!D$2</f>
-        <v>1716</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2875,11 +2878,11 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
-        <v>732</v>
+        <v>660</v>
       </c>
       <c r="C8" s="5">
         <f>C7+Resumen!D$2</f>
-        <v>1755</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,11 +2891,11 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
-        <v>854</v>
+        <v>770</v>
       </c>
       <c r="C9" s="5">
         <f>C8+Resumen!D$2</f>
-        <v>1794</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2901,11 +2904,11 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
-        <v>976</v>
+        <v>880</v>
       </c>
       <c r="C10" s="5">
         <f>C9+Resumen!D$2</f>
-        <v>1833</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2914,11 +2917,11 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
-        <v>1098</v>
+        <v>990</v>
       </c>
       <c r="C11" s="5">
         <f>C10+Resumen!D$2</f>
-        <v>1872</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2927,11 +2930,11 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
-        <v>1220</v>
+        <v>1100</v>
       </c>
       <c r="C12" s="5">
         <f>C11+Resumen!D$2</f>
-        <v>1911</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2940,11 +2943,11 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
-        <v>1342</v>
+        <v>1210</v>
       </c>
       <c r="C13" s="5">
         <f>C12+Resumen!D$2</f>
-        <v>1950</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2953,11 +2956,11 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
-        <v>1464</v>
+        <v>1320</v>
       </c>
       <c r="C14" s="5">
         <f>C13+Resumen!D$2</f>
-        <v>1989</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2966,11 +2969,11 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
-        <v>1586</v>
+        <v>1430</v>
       </c>
       <c r="C15" s="5">
         <f>C14+Resumen!D$2</f>
-        <v>2028</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2979,11 +2982,11 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
-        <v>1708</v>
+        <v>1540</v>
       </c>
       <c r="C16" s="5">
         <f>C15+Resumen!D$2</f>
-        <v>2067</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2992,11 +2995,11 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" si="0"/>
-        <v>1830</v>
+        <v>1650</v>
       </c>
       <c r="C17" s="5">
         <f>C16+Resumen!D$2</f>
-        <v>2106</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,11 +3008,11 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" si="0"/>
-        <v>1952</v>
+        <v>1760</v>
       </c>
       <c r="C18" s="5">
         <f>C17+Resumen!D$2</f>
-        <v>2145</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3018,37 +3021,37 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" si="0"/>
-        <v>2074</v>
+        <v>1870</v>
       </c>
       <c r="C19" s="5">
         <f>C18+Resumen!D$2</f>
-        <v>2184</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="5">
-        <f t="shared" si="0"/>
-        <v>2196</v>
-      </c>
-      <c r="C20" s="5">
+      <c r="B20" s="6">
+        <f t="shared" si="0"/>
+        <v>1980</v>
+      </c>
+      <c r="C20" s="6">
         <f>C19+Resumen!D$2</f>
-        <v>2223</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+      <c r="A21" s="12">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
-        <f t="shared" si="0"/>
-        <v>2318</v>
-      </c>
-      <c r="C21" s="6">
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>2090</v>
+      </c>
+      <c r="C21" s="12">
         <f>C20+Resumen!D$2</f>
-        <v>2262</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3057,11 +3060,11 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" si="0"/>
-        <v>2440</v>
+        <v>2200</v>
       </c>
       <c r="C22" s="5">
         <f>C21+Resumen!D$2</f>
-        <v>2301</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3070,11 +3073,11 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" si="0"/>
-        <v>2562</v>
+        <v>2310</v>
       </c>
       <c r="C23" s="5">
         <f>C22+Resumen!D$2</f>
-        <v>2340</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3083,11 +3086,11 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" si="0"/>
-        <v>2684</v>
+        <v>2420</v>
       </c>
       <c r="C24" s="5">
         <f>C23+Resumen!D$2</f>
-        <v>2379</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3096,11 +3099,11 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" si="0"/>
-        <v>2806</v>
+        <v>2530</v>
       </c>
       <c r="C25" s="5">
         <f>C24+Resumen!D$2</f>
-        <v>2418</v>
+        <v>2088</v>
       </c>
     </row>
   </sheetData>
@@ -3114,7 +3117,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3155,7 @@
       </c>
       <c r="B3" s="7">
         <f>Resumen!C3</f>
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4">
         <f>Resumen!E3</f>
@@ -3165,11 +3168,11 @@
       </c>
       <c r="B4" s="7">
         <f>B3+B$3</f>
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="C4" s="4">
         <f>C3+Resumen!D$3</f>
-        <v>1135</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -3178,11 +3181,11 @@
       </c>
       <c r="B5" s="7">
         <f>B4+B$3</f>
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="C5" s="4">
         <f>C4+Resumen!D$3</f>
-        <v>1170</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -3191,11 +3194,11 @@
       </c>
       <c r="B6" s="7">
         <f>B5+B$3</f>
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="C6" s="4">
         <f>C5+Resumen!D$3</f>
-        <v>1205</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -3204,11 +3207,11 @@
       </c>
       <c r="B7" s="7">
         <f>B6+B$3</f>
-        <v>560</v>
+        <v>475</v>
       </c>
       <c r="C7" s="4">
         <f>C6+Resumen!D$3</f>
-        <v>1240</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -3217,11 +3220,11 @@
       </c>
       <c r="B8" s="7">
         <f>B7+B$3</f>
-        <v>672</v>
+        <v>570</v>
       </c>
       <c r="C8" s="4">
         <f>C7+Resumen!D$3</f>
-        <v>1275</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3230,11 +3233,11 @@
       </c>
       <c r="B9" s="7">
         <f t="shared" ref="B9:B25" si="0">B8+B$3</f>
-        <v>784</v>
+        <v>665</v>
       </c>
       <c r="C9" s="4">
         <f>C8+Resumen!D$3</f>
-        <v>1310</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3243,11 +3246,11 @@
       </c>
       <c r="B10" s="7">
         <f t="shared" si="0"/>
-        <v>896</v>
+        <v>760</v>
       </c>
       <c r="C10" s="4">
         <f>C9+Resumen!D$3</f>
-        <v>1345</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3256,11 +3259,11 @@
       </c>
       <c r="B11" s="7">
         <f t="shared" si="0"/>
-        <v>1008</v>
+        <v>855</v>
       </c>
       <c r="C11" s="4">
         <f>C10+Resumen!D$3</f>
-        <v>1380</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,11 +3272,11 @@
       </c>
       <c r="B12" s="7">
         <f t="shared" si="0"/>
-        <v>1120</v>
+        <v>950</v>
       </c>
       <c r="C12" s="4">
         <f>C11+Resumen!D$3</f>
-        <v>1415</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -3282,11 +3285,11 @@
       </c>
       <c r="B13" s="7">
         <f t="shared" si="0"/>
-        <v>1232</v>
+        <v>1045</v>
       </c>
       <c r="C13" s="4">
         <f>C12+Resumen!D$3</f>
-        <v>1450</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -3295,11 +3298,11 @@
       </c>
       <c r="B14" s="7">
         <f t="shared" si="0"/>
-        <v>1344</v>
+        <v>1140</v>
       </c>
       <c r="C14" s="4">
         <f>C13+Resumen!D$3</f>
-        <v>1485</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -3308,37 +3311,37 @@
       </c>
       <c r="B15" s="7">
         <f t="shared" si="0"/>
-        <v>1456</v>
+        <v>1235</v>
       </c>
       <c r="C15" s="4">
         <f>C14+Resumen!D$3</f>
-        <v>1520</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="8">
-        <f t="shared" si="0"/>
-        <v>1568</v>
-      </c>
-      <c r="C16" s="9">
+      <c r="B16" s="10">
+        <f t="shared" si="0"/>
+        <v>1330</v>
+      </c>
+      <c r="C16" s="11">
         <f>C15+Resumen!D$3</f>
-        <v>1555</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="8">
         <v>15</v>
       </c>
-      <c r="B17" s="10">
-        <f t="shared" si="0"/>
-        <v>1680</v>
-      </c>
-      <c r="C17" s="11">
+      <c r="B17" s="8">
+        <f t="shared" si="0"/>
+        <v>1425</v>
+      </c>
+      <c r="C17" s="9">
         <f>C16+Resumen!D$3</f>
-        <v>1590</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -3347,11 +3350,11 @@
       </c>
       <c r="B18" s="7">
         <f t="shared" si="0"/>
-        <v>1792</v>
+        <v>1520</v>
       </c>
       <c r="C18" s="4">
         <f>C17+Resumen!D$3</f>
-        <v>1625</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -3360,11 +3363,11 @@
       </c>
       <c r="B19" s="7">
         <f t="shared" si="0"/>
-        <v>1904</v>
+        <v>1615</v>
       </c>
       <c r="C19" s="4">
         <f>C18+Resumen!D$3</f>
-        <v>1660</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -3373,11 +3376,11 @@
       </c>
       <c r="B20" s="7">
         <f t="shared" si="0"/>
-        <v>2016</v>
+        <v>1710</v>
       </c>
       <c r="C20" s="4">
         <f>C19+Resumen!D$3</f>
-        <v>1695</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -3386,11 +3389,11 @@
       </c>
       <c r="B21" s="7">
         <f t="shared" si="0"/>
-        <v>2128</v>
+        <v>1805</v>
       </c>
       <c r="C21" s="4">
         <f>C20+Resumen!D$3</f>
-        <v>1730</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -3399,11 +3402,11 @@
       </c>
       <c r="B22" s="7">
         <f t="shared" si="0"/>
-        <v>2240</v>
+        <v>1900</v>
       </c>
       <c r="C22" s="4">
         <f>C21+Resumen!D$3</f>
-        <v>1765</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -3412,11 +3415,11 @@
       </c>
       <c r="B23" s="7">
         <f t="shared" si="0"/>
-        <v>2352</v>
+        <v>1995</v>
       </c>
       <c r="C23" s="4">
         <f>C22+Resumen!D$3</f>
-        <v>1800</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -3425,11 +3428,11 @@
       </c>
       <c r="B24" s="7">
         <f t="shared" si="0"/>
-        <v>2464</v>
+        <v>2090</v>
       </c>
       <c r="C24" s="4">
         <f>C23+Resumen!D$3</f>
-        <v>1835</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -3438,11 +3441,11 @@
       </c>
       <c r="B25" s="7">
         <f t="shared" si="0"/>
-        <v>2576</v>
+        <v>2185</v>
       </c>
       <c r="C25" s="4">
         <f>C24+Resumen!D$3</f>
-        <v>1870</v>
+        <v>1496</v>
       </c>
     </row>
   </sheetData>
